--- a/Documents/TODO.xlsx
+++ b/Documents/TODO.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautatul/Documents/Atul/Study/Projects/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F4DB0-D2F3-DB4C-AF4D-F8D9F272BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EA145-C89A-3541-BF90-2DD296272BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="3" xr2:uid="{90052BEC-FEBB-F247-ACB1-709744DE85BE}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="2" xr2:uid="{90052BEC-FEBB-F247-ACB1-709744DE85BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Activity Process" sheetId="6" r:id="rId2"/>
     <sheet name="DashboardLayout" sheetId="7" r:id="rId3"/>
-    <sheet name="ServicesList" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="ServicesList" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ServicesList!$B$3:$L$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ServicesList!$B$3:$L$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="137">
   <si>
     <t>Timeline</t>
   </si>
@@ -430,13 +431,25 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Customer Login</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Pre Booking</t>
+  </si>
+  <si>
+    <t>end to end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,6 +467,30 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,6 +561,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1671,23 +1711,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+        <xdr:cNvPr id="119" name="Group 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE0CD0B-A8D0-1E4E-93C2-EAD6BBA57FB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6044A9-0FED-524D-8027-A71AAF05FED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,655 +1735,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="876300" y="292100"/>
-          <a:ext cx="6908800" cy="2387600"/>
-          <a:chOff x="3898900" y="63500"/>
-          <a:chExt cx="6908800" cy="2387600"/>
+          <a:off x="8216900" y="6553200"/>
+          <a:ext cx="6908800" cy="2349500"/>
+          <a:chOff x="9080500" y="546100"/>
+          <a:chExt cx="6908800" cy="2044700"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="120" name="Group 119">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7727C35-95D1-A940-BE06-2A7EAF32FE60}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3898900" y="406400"/>
-            <a:ext cx="6908800" cy="2044700"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600" b="1"/>
-              <a:t>Transport</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170A579C-FDD5-C949-ABBE-6D4CAF700BBF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8382000" y="1206500"/>
-            <a:ext cx="1663700" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" b="1"/>
-              <a:t>Vehicle Type: Tampo</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="TextBox 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A00C9E-F8AA-664C-BEDA-71D788F120A7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4038600" y="63500"/>
-            <a:ext cx="3937000" cy="311496"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1"/>
-              <a:t>Service</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" baseline="0"/>
-              <a:t> Provider</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1400" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rounded Rectangle 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D545D9-46E1-854F-B9A5-84946865AAB5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10134600" y="457200"/>
-            <a:ext cx="469900" cy="254000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>hide</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rounded Rectangle 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7545EDE5-F074-6246-BD5F-50122D53C11E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9258300" y="2070100"/>
-            <a:ext cx="1054100" cy="292100"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-              <a:t>Send Request</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1A91F8-0E1C-1642-8AE8-8C37D2A7AFEA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8305800" y="762000"/>
-            <a:ext cx="2451100" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>Date:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>2021-8-1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-              <a:t> 12:00 ~  2021-8-2 15:00</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rounded Rectangle 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABB005D-2962-8746-8074-CFA413B68F3A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8153400" y="2082800"/>
-            <a:ext cx="863600" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>Intrested</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2502B3C-2B08-6849-969D-04DEC83DF9FB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4127500" y="1562100"/>
-            <a:ext cx="1244600" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>From: Narhe</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-              <a:t> Pune </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1845B2-9D6C-6E42-82A5-E32CB2E29B5E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5537200" y="1574800"/>
-            <a:ext cx="2159000" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t>Destination: Chandan nagar</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-              <a:t> Pune </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C00116-02C0-7448-8CE6-C78F94481F91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="1079500"/>
-          <a:ext cx="3175000" cy="673100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>House stuff shifting..................</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>................</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>................</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355601</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>647702</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Group 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD74423-DD19-8243-917B-148088458C44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8610601" y="3225800"/>
-          <a:ext cx="6896101" cy="2032000"/>
-          <a:chOff x="9436100" y="3162300"/>
-          <a:chExt cx="7640487" cy="2032000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rounded Rectangle 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E30A21-C96B-B248-8258-0E1644F24778}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9436100" y="3162300"/>
-            <a:ext cx="4333830" cy="2032000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Requests</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="Group 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8A060B-90F0-7348-B72C-922AB141AC31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EC66B1-76E4-A843-86F0-7BCBE77F38A1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2351,922 +1754,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="9550400" y="4013200"/>
-            <a:ext cx="3811474" cy="292100"/>
-            <a:chOff x="9550400" y="4013200"/>
-            <a:chExt cx="3811474" cy="292100"/>
+            <a:off x="9080500" y="546100"/>
+            <a:ext cx="6908800" cy="2044700"/>
+            <a:chOff x="3898900" y="406400"/>
+            <a:chExt cx="6908800" cy="2044700"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="TextBox 28">
+            <xdr:cNvPr id="122" name="Rounded Rectangle 121">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370C1C34-B0BF-D649-AE66-438E8BBBA8A1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9550400" y="4013200"/>
-              <a:ext cx="1219200" cy="215900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>Ravi </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="Rounded Rectangle 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362CF21E-A694-A841-B6E3-91AB1FFD2541}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12293600" y="4025900"/>
-              <a:ext cx="1068274" cy="279400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent6"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Get details</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="5-point Star 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F978536B-9C5B-D74B-83F3-9C03F9E4E070}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11455400" y="4051300"/>
-              <a:ext cx="304800" cy="203200"/>
-            </a:xfrm>
-            <a:prstGeom prst="star5">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="5-point Star 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CB62B4-CEDB-814E-AF44-FC0C9EA89F09}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11061700" y="4038600"/>
-              <a:ext cx="304800" cy="203200"/>
-            </a:xfrm>
-            <a:prstGeom prst="star5">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="16" name="Group 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C122CCA6-0508-2641-9CF7-FECFA10AA532}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9537700" y="4381500"/>
-            <a:ext cx="3796033" cy="317500"/>
-            <a:chOff x="9537700" y="4381500"/>
-            <a:chExt cx="3796033" cy="317500"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="TextBox 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884CC8C2-F332-2E4B-974F-24DB3A734EFE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9537700" y="4381500"/>
-              <a:ext cx="1219200" cy="215900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>Deva </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="Rounded Rectangle 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033018DA-1051-2546-87BF-6BFE8F0309BD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12293599" y="4406900"/>
-              <a:ext cx="1040134" cy="292100"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent6"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Get details</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="5-point Star 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374E260C-5A2C-094C-B366-F0E6A5B1D327}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11442700" y="4419600"/>
-              <a:ext cx="304800" cy="203200"/>
-            </a:xfrm>
-            <a:prstGeom prst="star5">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="5-point Star 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8402E5-5ACE-004C-8C58-C837054BD94A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11049000" y="4406900"/>
-              <a:ext cx="304800" cy="203200"/>
-            </a:xfrm>
-            <a:prstGeom prst="star5">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="TextBox 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE8BDE6-9CBC-AF46-83F8-0F82DE420FBC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10909300" y="4914900"/>
-            <a:ext cx="1219200" cy="215900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>See more </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="18" name="Group 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE46D16A-E966-E949-9DC1-A043DD88EE99}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9550400" y="3670300"/>
-            <a:ext cx="3811475" cy="279400"/>
-            <a:chOff x="9550400" y="3670300"/>
-            <a:chExt cx="3811475" cy="279400"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="TextBox 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DFFA64-80C1-2E48-AAC4-CC04C401EA38}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9550400" y="3683000"/>
-              <a:ext cx="1219200" cy="215900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>Atul Raut </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Rounded Rectangle 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2346B479-266B-1945-B0ED-7C910AA50AE2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12255501" y="3670300"/>
-              <a:ext cx="1106374" cy="279400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent6"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Get details</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="5-point Star 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963A542F-9CB3-3E49-9368-2C9DB85EEBA3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11506200" y="3695700"/>
-              <a:ext cx="304800" cy="203200"/>
-            </a:xfrm>
-            <a:prstGeom prst="star5">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="5-point Star 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1032C-FBC9-1842-8B80-3FB7B9428732}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11112500" y="3683000"/>
-              <a:ext cx="304800" cy="203200"/>
-            </a:xfrm>
-            <a:prstGeom prst="star5">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="5-point Star 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5859C8EA-6F08-E74B-BBA9-66E0280E4D79}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11861800" y="3708400"/>
-              <a:ext cx="304800" cy="203200"/>
-            </a:xfrm>
-            <a:prstGeom prst="star5">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Rounded Rectangle 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E9E2C1-05EF-1340-B2B5-05A502407FE5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14389049" y="3327400"/>
-            <a:ext cx="2687538" cy="1384300"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Atul Raut</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79309909-0E64-6146-B4DD-949D7147196D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="2"/>
-          <a:endCxn id="14" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10375900" y="2603500"/>
-          <a:ext cx="190500" cy="622300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="Group 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9527BDB5-800F-5D48-8E2B-345CA60FA7CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9105900" y="330200"/>
-          <a:ext cx="6908800" cy="2387600"/>
-          <a:chOff x="9080500" y="203200"/>
-          <a:chExt cx="6908800" cy="2387600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="Group 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC86B7E7-5F64-8D4D-9867-48049413E440}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9080500" y="203200"/>
-            <a:ext cx="6908800" cy="2387600"/>
-            <a:chOff x="3898900" y="63500"/>
-            <a:chExt cx="6908800" cy="2387600"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="Rounded Rectangle 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE18B3E-F3D8-B846-92FB-7B18B154EA2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F0A626-00E2-0148-88AD-81CACBC39629}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3278,8 +1777,23 @@
               <a:ext cx="6908800" cy="2044700"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
-              <a:avLst/>
+              <a:avLst>
+                <a:gd name="adj" fmla="val 4235"/>
+              </a:avLst>
             </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
@@ -3311,10 +1825,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="TextBox 37">
+            <xdr:cNvPr id="123" name="TextBox 122">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315008BF-4FCA-7842-B282-4C3DD4B3C62F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A997351F-8211-5043-A1A9-BC2D77611269}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3359,10 +1873,64 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="TextBox 38">
+            <xdr:cNvPr id="124" name="Rounded Rectangle 123">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B890AE-CD47-EB41-86D3-C53400A0E4A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B1E14C-C115-BF48-9EAE-DE177A947529}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4394200" y="2082800"/>
+              <a:ext cx="1549400" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="52000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t>5 Pepole sent request</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="125" name="TextBox 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8B36D1-6BDB-6B4E-B74A-125B02D0B489}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3370,8 +1938,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4038600" y="63500"/>
-              <a:ext cx="3937000" cy="311496"/>
+              <a:off x="8293100" y="546100"/>
+              <a:ext cx="2451100" cy="264560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3399,8 +1967,930 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1400" b="1"/>
-                <a:t>Customer</a:t>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Date:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>2021-8-1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> 12:00 ~  2021-8-2 15:00</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="126" name="TextBox 125">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A58DC49-7C70-E549-9817-61E36DEE6B71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4127500" y="1562100"/>
+              <a:ext cx="1244600" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>From: Narhe</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> Pune </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="127" name="TextBox 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE66486-B5AE-7349-9300-6FA86EB8707C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5537200" y="1574800"/>
+              <a:ext cx="2159000" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Destination: Chandan nagar</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> Pune </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128" name="Rounded Rectangle 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DC66C3-DE0A-6043-BAFF-7CA9D312974D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6083300" y="2082800"/>
+              <a:ext cx="1422400" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t>Find Service provider</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="TextBox 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D3C3BD-C5A2-4046-9726-DF729BD144CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9321800" y="1003300"/>
+            <a:ext cx="3175000" cy="673100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>House stuff shifting..................</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>................</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>................</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="Group 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084CFE8F-1ED8-0B4B-B49A-09EE065D767D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="622300" y="4191000"/>
+          <a:ext cx="6908800" cy="2044700"/>
+          <a:chOff x="1117600" y="4432300"/>
+          <a:chExt cx="6908800" cy="2044700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="Group 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE0CD0B-A8D0-1E4E-93C2-EAD6BBA57FB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1117600" y="4432300"/>
+            <a:ext cx="6908800" cy="2044700"/>
+            <a:chOff x="3898900" y="406400"/>
+            <a:chExt cx="6908800" cy="2044700"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7727C35-95D1-A940-BE06-2A7EAF32FE60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3898900" y="406400"/>
+              <a:ext cx="6908800" cy="2044700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2381"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600" b="1"/>
+                <a:t>Transport</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170A579C-FDD5-C949-ABBE-6D4CAF700BBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8382000" y="1206500"/>
+              <a:ext cx="1663700" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1"/>
+                <a:t>Vehicle Type: Tampo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D545D9-46E1-854F-B9A5-84946865AAB5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10274300" y="469900"/>
+              <a:ext cx="469900" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>hide</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7545EDE5-F074-6246-BD5F-50122D53C11E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9258300" y="2070100"/>
+              <a:ext cx="1054100" cy="292100"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t>Send Request</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1A91F8-0E1C-1642-8AE8-8C37D2A7AFEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8305800" y="762000"/>
+              <a:ext cx="2451100" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Date:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>2021-8-1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> 12:00 ~  2021-8-2 15:00</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABB005D-2962-8746-8074-CFA413B68F3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8153400" y="2082800"/>
+              <a:ext cx="863600" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Intrested</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2502B3C-2B08-6849-969D-04DEC83DF9FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4127500" y="1562100"/>
+              <a:ext cx="1244600" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>From: Narhe</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> Pune </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1845B2-9D6C-6E42-82A5-E32CB2E29B5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5537200" y="1574800"/>
+              <a:ext cx="2159000" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Destination: Chandan nagar</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> Pune </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C00116-02C0-7448-8CE6-C78F94481F91}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1612900" y="4876800"/>
+            <a:ext cx="3175000" cy="673100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>House stuff shifting..................</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>................</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>................</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Group 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9527BDB5-800F-5D48-8E2B-345CA60FA7CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8216900" y="4165600"/>
+          <a:ext cx="6908800" cy="2349500"/>
+          <a:chOff x="9080500" y="546100"/>
+          <a:chExt cx="6908800" cy="2044700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="Group 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC86B7E7-5F64-8D4D-9867-48049413E440}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9080500" y="546100"/>
+            <a:ext cx="6908800" cy="2044700"/>
+            <a:chOff x="3898900" y="406400"/>
+            <a:chExt cx="6908800" cy="2044700"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="Rounded Rectangle 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE18B3E-F3D8-B846-92FB-7B18B154EA2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3898900" y="406400"/>
+              <a:ext cx="6908800" cy="2044700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 4235"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600" b="1"/>
+                <a:t>Transport</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315008BF-4FCA-7842-B282-4C3DD4B3C62F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8470900" y="1045176"/>
+              <a:ext cx="2171700" cy="271086"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Vehicle Type: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1"/>
+                <a:t>Tampo</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3467,7 +2957,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8293100" y="546100"/>
+              <a:off x="8305800" y="789254"/>
               <a:ext cx="2451100" cy="264560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3529,7 +3019,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4127500" y="1562100"/>
-              <a:ext cx="1244600" cy="264560"/>
+              <a:ext cx="1447800" cy="271086"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3557,8 +3047,16 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>From: </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>From: Narhe</a:t>
+                <a:t>Narhe</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" baseline="0"/>
@@ -3581,8 +3079,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5537200" y="1574800"/>
-              <a:ext cx="2159000" cy="264560"/>
+              <a:off x="6921500" y="1552695"/>
+              <a:ext cx="3276600" cy="271086"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3610,8 +3108,16 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Destination: </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Destination: Chandan nagar</a:t>
+                <a:t>Chandan nagar</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" baseline="0"/>
@@ -3738,13 +3244,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3804,13 +3310,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3873,679 +3379,1481 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596901</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="Group 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA09EF4D-7681-D24A-A944-6AA88874B6C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586F1672-11DD-C941-917D-E153836DD913}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="3"/>
-          <a:endCxn id="19" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12153901" y="3873500"/>
-          <a:ext cx="927099" cy="209550"/>
+          <a:off x="8877301" y="6438899"/>
+          <a:ext cx="6489700" cy="1917700"/>
+          <a:chOff x="9677403" y="7023100"/>
+          <a:chExt cx="6921497" cy="2239650"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="113" name="Group 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B95A94C-07AB-9545-95F5-B22CDBECD985}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9677403" y="7023100"/>
+            <a:ext cx="6921497" cy="2239650"/>
+            <a:chOff x="9677403" y="7023100"/>
+            <a:chExt cx="6921497" cy="2239650"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD74423-DD19-8243-917B-148088458C44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="9677403" y="7023100"/>
+              <a:ext cx="6786046" cy="2239650"/>
+              <a:chOff x="9436100" y="3162300"/>
+              <a:chExt cx="7518553" cy="2239650"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="14" name="Rounded Rectangle 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E30A21-C96B-B248-8258-0E1644F24778}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9436100" y="3162300"/>
+                <a:ext cx="4333829" cy="2239650"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 3422"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Requests</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="15" name="Group 14">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8A060B-90F0-7348-B72C-922AB141AC31}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="9550400" y="4013200"/>
+                <a:ext cx="3811474" cy="320838"/>
+                <a:chOff x="9550400" y="4013200"/>
+                <a:chExt cx="3811474" cy="320838"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="29" name="TextBox 28">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370C1C34-B0BF-D649-AE66-438E8BBBA8A1}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9550400" y="4013200"/>
+                  <a:ext cx="1219200" cy="320838"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Ravi </a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="30" name="Rounded Rectangle 29">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362CF21E-A694-A841-B6E3-91AB1FFD2541}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="12293600" y="4025900"/>
+                  <a:ext cx="1068274" cy="279400"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent6"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t>Get details</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="31" name="5-point Star 30">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F978536B-9C5B-D74B-83F3-9C03F9E4E070}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11455400" y="4051300"/>
+                  <a:ext cx="304800" cy="203200"/>
+                </a:xfrm>
+                <a:prstGeom prst="star5">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-GB" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="32" name="5-point Star 31">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CB62B4-CEDB-814E-AF44-FC0C9EA89F09}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11061700" y="4038600"/>
+                  <a:ext cx="304800" cy="203200"/>
+                </a:xfrm>
+                <a:prstGeom prst="star5">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-GB" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="16" name="Group 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C122CCA6-0508-2641-9CF7-FECFA10AA532}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="9537700" y="4381499"/>
+                <a:ext cx="3796033" cy="353006"/>
+                <a:chOff x="9537700" y="4381499"/>
+                <a:chExt cx="3796033" cy="353006"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="25" name="TextBox 24">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884CC8C2-F332-2E4B-974F-24DB3A734EFE}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9537700" y="4381499"/>
+                  <a:ext cx="1219200" cy="353006"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Deva </a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="26" name="Rounded Rectangle 25">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033018DA-1051-2546-87BF-6BFE8F0309BD}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="12293599" y="4406900"/>
+                  <a:ext cx="1040134" cy="292100"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent6"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t>Get details</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="27" name="5-point Star 26">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374E260C-5A2C-094C-B366-F0E6A5B1D327}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11442700" y="4419600"/>
+                  <a:ext cx="304800" cy="203200"/>
+                </a:xfrm>
+                <a:prstGeom prst="star5">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-GB" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="28" name="5-point Star 27">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8402E5-5ACE-004C-8C58-C837054BD94A}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11049000" y="4406900"/>
+                  <a:ext cx="304800" cy="203200"/>
+                </a:xfrm>
+                <a:prstGeom prst="star5">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-GB" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="TextBox 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE8BDE6-9CBC-AF46-83F8-0F82DE420FBC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10909300" y="4914899"/>
+                <a:ext cx="1219199" cy="368394"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>See more </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="18" name="Group 17">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE46D16A-E966-E949-9DC1-A043DD88EE99}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="9550400" y="3670300"/>
+                <a:ext cx="3811475" cy="352265"/>
+                <a:chOff x="9550400" y="3670300"/>
+                <a:chExt cx="3811475" cy="352265"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="20" name="TextBox 19">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DFFA64-80C1-2E48-AAC4-CC04C401EA38}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9550400" y="3683000"/>
+                  <a:ext cx="1219200" cy="339565"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Atul Raut </a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="21" name="Rounded Rectangle 20">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2346B479-266B-1945-B0ED-7C910AA50AE2}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="12255501" y="3670300"/>
+                  <a:ext cx="1106374" cy="279400"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent6"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t>Get details</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="22" name="5-point Star 21">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963A542F-9CB3-3E49-9368-2C9DB85EEBA3}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11506200" y="3695700"/>
+                  <a:ext cx="304800" cy="203200"/>
+                </a:xfrm>
+                <a:prstGeom prst="star5">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-GB" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="23" name="5-point Star 22">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1032C-FBC9-1842-8B80-3FB7B9428732}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11112500" y="3683000"/>
+                  <a:ext cx="304800" cy="203200"/>
+                </a:xfrm>
+                <a:prstGeom prst="star5">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-GB" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="24" name="5-point Star 23">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5859C8EA-6F08-E74B-BBA9-66E0280E4D79}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11861800" y="3708400"/>
+                  <a:ext cx="304800" cy="203200"/>
+                </a:xfrm>
+                <a:prstGeom prst="star5">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-GB" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="Rounded Rectangle 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E9E2C1-05EF-1340-B2B5-05A502407FE5}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14133927" y="3327400"/>
+                <a:ext cx="2820726" cy="1540595"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 3188"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Atul Raut</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="5-point Star 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F638D610-3FEE-6541-B420-3901FEEDBC23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15652903" y="7387229"/>
+              <a:ext cx="150966" cy="142297"/>
+            </a:xfrm>
+            <a:prstGeom prst="star5">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="5-point Star 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08142CC2-4E81-0E48-91A8-5EF6CD8E5B23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15297560" y="7374529"/>
+              <a:ext cx="150966" cy="142297"/>
+            </a:xfrm>
+            <a:prstGeom prst="star5">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="5-point Star 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A5F1DB-47DD-C641-9812-8F479BBB5D43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15973858" y="7399928"/>
+              <a:ext cx="150966" cy="142297"/>
+            </a:xfrm>
+            <a:prstGeom prst="star5">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="TextBox 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E249C34-4674-6645-8E8A-E17C178B7B22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14224000" y="7658100"/>
+              <a:ext cx="2331910" cy="299424"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Driving Experience 3Yrs years</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="TextBox 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BE0912-54DC-7B47-B722-F2370B9A8083}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14219774" y="8246564"/>
+              <a:ext cx="1155700" cy="253999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Narhe Pune</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="TextBox 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D218EE1-C98E-FF4E-A8C7-4969A47C778B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14228549" y="7956596"/>
+              <a:ext cx="1612900" cy="253999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>+91 10000000</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Multiply 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C25F6F1-BB20-C042-ABEC-6FD3886CEE40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16062990" y="7156403"/>
+              <a:ext cx="177800" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="mathMultiply">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="TextBox 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E0EB72-DDF3-2A4F-A3DF-DC4B9EC969F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15722600" y="8242300"/>
+              <a:ext cx="876300" cy="353006"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Images</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA09EF4D-7681-D24A-A944-6AA88874B6C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="21" idx="3"/>
+            <a:endCxn id="19" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13220702" y="7670800"/>
+            <a:ext cx="696834" cy="287698"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="Multiply 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F2828C-2520-A94A-AA15-AD55F067929D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13296900" y="7112000"/>
+            <a:ext cx="177800" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathMultiply">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>444243</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>719347</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="5-point Star 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F638D610-3FEE-6541-B420-3901FEEDBC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14477743" y="3530600"/>
-          <a:ext cx="275104" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>364004</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="5-point Star 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08142CC2-4E81-0E48-91A8-5EF6CD8E5B23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14122400" y="3517900"/>
-          <a:ext cx="275104" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>765198</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>214802</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="5-point Star 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A5F1DB-47DD-C641-9812-8F479BBB5D43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14798698" y="3543300"/>
-          <a:ext cx="275104" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="TextBox 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E249C34-4674-6645-8E8A-E17C178B7B22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13157200" y="3860800"/>
-          <a:ext cx="1663700" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Experience 3 years</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="TextBox 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BE0912-54DC-7B47-B722-F2370B9A8083}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13220700" y="4419600"/>
-          <a:ext cx="1155700" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Narhe Pune</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="TextBox 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D218EE1-C98E-FF4E-A8C7-4969A47C778B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13233400" y="4114800"/>
-          <a:ext cx="1612900" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>+91 10000000</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Multiply 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C25F6F1-BB20-C042-ABEC-6FD3886CEE40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240000" y="3403600"/>
-          <a:ext cx="177800" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Multiply 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F2828C-2520-A94A-AA15-AD55F067929D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12230100" y="3314700"/>
-          <a:ext cx="177800" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="TextBox 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E0EB72-DDF3-2A4F-A3DF-DC4B9EC969F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14655800" y="4445000"/>
-          <a:ext cx="876300" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Images</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4560,8 +4868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="863600" y="6451600"/>
-          <a:ext cx="6908800" cy="3073400"/>
+          <a:off x="8191500" y="457200"/>
+          <a:ext cx="6616700" cy="3124200"/>
           <a:chOff x="5943600" y="6540500"/>
           <a:chExt cx="6908800" cy="3073400"/>
         </a:xfrm>
@@ -4797,8 +5105,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="4114800" y="1739900"/>
-                  <a:ext cx="1244600" cy="264560"/>
+                  <a:off x="4592184" y="1540004"/>
+                  <a:ext cx="1468203" cy="306431"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4826,8 +5134,16 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:r>
+                    <a:rPr lang="en-GB" sz="1400" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>From: </a:t>
+                  </a:r>
+                  <a:r>
                     <a:rPr lang="en-GB" sz="1100"/>
-                    <a:t>From: Narhe</a:t>
+                    <a:t>Narhe</a:t>
                   </a:r>
                   <a:r>
                     <a:rPr lang="en-GB" sz="1100" baseline="0"/>
@@ -4850,8 +5166,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="5537200" y="1752600"/>
-                  <a:ext cx="2159000" cy="264560"/>
+                  <a:off x="7473256" y="1527717"/>
+                  <a:ext cx="2684672" cy="306431"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4879,8 +5195,16 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:r>
+                    <a:rPr lang="en-GB" sz="1400" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Destination: </a:t>
+                  </a:r>
+                  <a:r>
                     <a:rPr lang="en-GB" sz="1100"/>
-                    <a:t>Destination: Chandan nagar</a:t>
+                    <a:t>Chandan nagar</a:t>
                   </a:r>
                   <a:r>
                     <a:rPr lang="en-GB" sz="1100" baseline="0"/>
@@ -4904,7 +5228,7 @@
               <xdr:spPr>
                 <a:xfrm>
                   <a:off x="3975100" y="800100"/>
-                  <a:ext cx="1663700" cy="264560"/>
+                  <a:ext cx="1216751" cy="306431"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4932,8 +5256,12 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:r>
-                    <a:rPr lang="en-GB" sz="1100" b="1"/>
-                    <a:t>Vehicle Type: Tampo</a:t>
+                    <a:rPr lang="en-GB" sz="1400" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Vehicle Type:</a:t>
                   </a:r>
                 </a:p>
               </xdr:txBody>
@@ -4951,8 +5279,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="4038600" y="1244600"/>
-                  <a:ext cx="2451100" cy="264560"/>
+                  <a:off x="4012480" y="1207119"/>
+                  <a:ext cx="3961176" cy="306431"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4980,11 +5308,19 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:r>
-                    <a:rPr lang="en-GB" sz="1100"/>
-                    <a:t>Date:</a:t>
+                    <a:rPr lang="en-GB" sz="1400" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Activity Date:</a:t>
                   </a:r>
                   <a:r>
-                    <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                    <a:rPr lang="en-GB" sz="1400" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:rPr>
                     <a:t> </a:t>
                   </a:r>
                   <a:r>
@@ -5066,9 +5402,9 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="7251700" y="6921500"/>
+              <a:off x="7251700" y="6921511"/>
               <a:ext cx="1473200" cy="266700"/>
-              <a:chOff x="2819400" y="7937500"/>
+              <a:chOff x="2819400" y="7937511"/>
               <a:chExt cx="1371600" cy="254000"/>
             </a:xfrm>
             <a:solidFill>
@@ -5091,7 +5427,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2819400" y="7937500"/>
+                <a:off x="2819400" y="7937511"/>
                 <a:ext cx="1371600" cy="254000"/>
               </a:xfrm>
               <a:prstGeom prst="roundRect">
@@ -5121,7 +5457,11 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Transport</a:t>
                 </a:r>
               </a:p>
@@ -5189,7 +5529,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6908800" y="8496300"/>
-            <a:ext cx="5270500" cy="698500"/>
+            <a:ext cx="5612084" cy="698500"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -5224,6 +5564,1063 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213379</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42508</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="Group 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7726732D-E01E-7146-95A9-9D3FB1AAF12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9448800" y="1231900"/>
+          <a:ext cx="1432579" cy="271108"/>
+          <a:chOff x="3543300" y="647700"/>
+          <a:chExt cx="1432579" cy="271108"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="Rounded Rectangle 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66391E1F-2DD7-CD41-97EA-DC4F72A429C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3543300" y="647700"/>
+            <a:ext cx="1432579" cy="271108"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tempo</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="Triangle 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF94E7B-36CA-CE40-A007-5728E7FEF2D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4630999" y="688354"/>
+            <a:ext cx="318351" cy="189776"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="Group 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1343F2AA-AFAA-E244-98D4-2A0CA77BB462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609600" y="6273800"/>
+          <a:ext cx="6908800" cy="2044700"/>
+          <a:chOff x="1079500" y="4330700"/>
+          <a:chExt cx="6908800" cy="2044700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="87" name="Group 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC137B-3E2E-F749-A963-458E2768B9F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1079500" y="4330700"/>
+            <a:ext cx="6908800" cy="2044700"/>
+            <a:chOff x="3860800" y="304800"/>
+            <a:chExt cx="6908800" cy="2044700"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="Rounded Rectangle 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45E8ECC-B0EF-CA42-9C5D-329FD8C6872E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3860800" y="304800"/>
+              <a:ext cx="6908800" cy="2044700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 1139"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600" b="1"/>
+                <a:t>Transport</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="90" name="TextBox 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6928F36-F016-5449-A6A0-2EC2D1213649}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8382000" y="1206500"/>
+              <a:ext cx="1663700" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1"/>
+                <a:t>Vehicle Type: Tampo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="91" name="Rounded Rectangle 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFD8249-07BC-B44C-82FC-906B1C3FEA17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10134600" y="457200"/>
+              <a:ext cx="469900" cy="254000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>hide</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="92" name="Rounded Rectangle 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D5F3F2-D6F6-3746-A3C1-0778C07DE161}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9245600" y="1955800"/>
+              <a:ext cx="1054100" cy="292100"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t>Send Request</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="TextBox 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727EBDB6-8907-D74D-B0D4-D35AC382E63C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8305800" y="762000"/>
+              <a:ext cx="2451100" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Date:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>2021-8-1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> 12:00 ~  2021-8-2 15:00</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="94" name="Rounded Rectangle 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0B2D1C-5BE8-6D4C-B7F2-213BF133E445}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8166100" y="1993900"/>
+              <a:ext cx="863600" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Intrested</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="TextBox 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C982C21-5A52-194D-A3A9-8163D47F701E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4127500" y="1562100"/>
+              <a:ext cx="1244600" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>From: Narhe</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> Pune </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="TextBox 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587AFD86-63CE-3D44-A285-B53AEABB8CA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5537200" y="1574800"/>
+              <a:ext cx="2159000" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Destination: Chandan nagar</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+                <a:t> Pune </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="TextBox 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC22D84-57EA-5147-A56E-CB9E5D62FF74}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1612900" y="4876800"/>
+            <a:ext cx="3175000" cy="673100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>House stuff shifting..................</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>................</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>................</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rectangle 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F6FD5D-D74F-0E49-A679-42706A3ED670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="3695700"/>
+          <a:ext cx="7239000" cy="5778500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rounded Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4CD72-7071-C94F-8386-128708D6904F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="8915400"/>
+          <a:ext cx="546100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rectangle 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2A6BFA-B463-E548-B30C-5A9ECA42FC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="3708400"/>
+          <a:ext cx="7188200" cy="5778500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>43088</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79309909-0E64-6146-B4DD-949D7147196D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10261600" y="6237830"/>
+          <a:ext cx="449488" cy="201069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rounded Rectangle 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7420D59A-1946-2E41-B34A-CB449D996A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14617700" y="9093200"/>
+          <a:ext cx="546100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rounded Rectangle 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81986D3E-1C4E-A94C-BF8B-449BACE97061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14554200" y="4254500"/>
+          <a:ext cx="469900" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>hide</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5607,15 +7004,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AD811D-9B4C-B744-B95C-0E48158B425D}">
-  <dimension ref="B3:AL30"/>
+  <dimension ref="B3:BM30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AR29" sqref="AR29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="63" max="63" width="11.5" customWidth="1"/>
+    <col min="64" max="64" width="4.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:65" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5626,17 +7027,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:65" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="BK6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="BL7">
+        <v>2</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:65" x14ac:dyDescent="0.2">
       <c r="AH8" t="s">
         <v>11</v>
       </c>
+      <c r="BL8">
+        <v>-1</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:65" x14ac:dyDescent="0.2">
       <c r="N13" t="s">
         <v>12</v>
       </c>
@@ -5669,47 +7101,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFC674E-FF23-024B-B50C-63FA81477FCC}">
-  <dimension ref="B18:D21"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
+    <row r="1" spans="12:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="L19" s="10" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5719,11 +7133,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF105E-19DD-504E-B2C7-03D135544D2A}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873333A-9513-0D4B-818E-F6CEEC3D4866}">
   <dimension ref="B3:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Documents/TODO.xlsx
+++ b/Documents/TODO.xlsx
@@ -5,23 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautatul/Documents/Atul/Study/Projects/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautatul/Documents/Atul/Study/Projects/booking-dev/booking/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EA145-C89A-3541-BF90-2DD296272BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C7A26-DF58-864B-BC81-B33F92DD0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15800" activeTab="2" xr2:uid="{90052BEC-FEBB-F247-ACB1-709744DE85BE}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{90052BEC-FEBB-F247-ACB1-709744DE85BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Activity Process" sheetId="6" r:id="rId2"/>
     <sheet name="DashboardLayout" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="ServicesList" sheetId="8" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ServicesList!$B$3:$L$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Timeline</t>
   </si>
@@ -100,327 +95,6 @@
     <t>Captcha</t>
   </si>
   <si>
-    <t>Service Name</t>
-  </si>
-  <si>
-    <t>servicePath</t>
-  </si>
-  <si>
-    <t>ServiceCode</t>
-  </si>
-  <si>
-    <t>queryId</t>
-  </si>
-  <si>
-    <t>logActivity</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>WS-UP-01</t>
-  </si>
-  <si>
-    <t>Get User Information</t>
-  </si>
-  <si>
-    <t>app.user.get</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>WS-UP-02</t>
-  </si>
-  <si>
-    <t>Get All User Information</t>
-  </si>
-  <si>
-    <t>app.user.get.all</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>User Registration</t>
-  </si>
-  <si>
-    <t>WS-UP-03</t>
-  </si>
-  <si>
-    <t>WS-UP-04</t>
-  </si>
-  <si>
-    <t>WS-UP-05</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>app.user.save</t>
-  </si>
-  <si>
-    <t>Login service</t>
-  </si>
-  <si>
-    <t>Logout service</t>
-  </si>
-  <si>
-    <t>app.user.logout</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>WS-VS-01</t>
-  </si>
-  <si>
-    <t>Get All Vehicle From Master</t>
-  </si>
-  <si>
-    <t>app.vehicle.get.all</t>
-  </si>
-  <si>
-    <t>WS-VS-02</t>
-  </si>
-  <si>
-    <t>app.vehicle.save</t>
-  </si>
-  <si>
-    <t>User Vehicle Registration</t>
-  </si>
-  <si>
-    <t>app.vehicle.get.uservehicle</t>
-  </si>
-  <si>
-    <t>WS-VS-03</t>
-  </si>
-  <si>
-    <t>Get User Vehicles</t>
-  </si>
-  <si>
-    <t>WS-AP-01</t>
-  </si>
-  <si>
-    <t>Refresh cache</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>WS-SE-01</t>
-  </si>
-  <si>
-    <t>app.service.get.all</t>
-  </si>
-  <si>
-    <t>Create Post</t>
-  </si>
-  <si>
-    <t>Get All Active Services Types</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>Search post</t>
-  </si>
-  <si>
-    <t>WS-PS-01</t>
-  </si>
-  <si>
-    <t>app.post.search</t>
-  </si>
-  <si>
-    <t>WS-PS-02</t>
-  </si>
-  <si>
-    <t>app.post.create</t>
-  </si>
-  <si>
-    <t>Update Post Status</t>
-  </si>
-  <si>
-    <t>WS-PS-03</t>
-  </si>
-  <si>
-    <t>app.post.update.status</t>
-  </si>
-  <si>
-    <t>Update Post</t>
-  </si>
-  <si>
-    <t>WS-PS-04</t>
-  </si>
-  <si>
-    <t>app.post.update</t>
-  </si>
-  <si>
-    <t>Delete Post</t>
-  </si>
-  <si>
-    <t>WS-PS-05</t>
-  </si>
-  <si>
-    <t>app.post.delete</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>Create Post Request</t>
-  </si>
-  <si>
-    <t>WS-PS-06</t>
-  </si>
-  <si>
-    <t>app.post.create.request</t>
-  </si>
-  <si>
-    <t>Delete Post Request</t>
-  </si>
-  <si>
-    <t>WS-PS-07</t>
-  </si>
-  <si>
-    <t>app.post.delete.request</t>
-  </si>
-  <si>
-    <t>Get Post Request</t>
-  </si>
-  <si>
-    <t>WS-PS-08</t>
-  </si>
-  <si>
-    <t>app.post.get.request</t>
-  </si>
-  <si>
-    <t>Get Post Request Count</t>
-  </si>
-  <si>
-    <t>app.post.get.request.count</t>
-  </si>
-  <si>
-    <t>WS-PS-09</t>
-  </si>
-  <si>
-    <t>Search Service Provider For Post</t>
-  </si>
-  <si>
-    <t>WS-SP-01</t>
-  </si>
-  <si>
-    <t>app.serviceprovider.search</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>Basic Done</t>
-  </si>
-  <si>
-    <t>Refresh SQL</t>
-  </si>
-  <si>
-    <t>WS-AP-02</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>/refreshcache</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>vehicle</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/search</t>
-  </si>
-  <si>
-    <t>serviceprovider</t>
-  </si>
-  <si>
-    <t>/refreshsql</t>
-  </si>
-  <si>
-    <t>/id</t>
-  </si>
-  <si>
-    <t>/all</t>
-  </si>
-  <si>
-    <t>/registor</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>/logout</t>
-  </si>
-  <si>
-    <t>/uservehicle</t>
-  </si>
-  <si>
-    <t>/type/all</t>
-  </si>
-  <si>
-    <t>/create</t>
-  </si>
-  <si>
-    <t>/update</t>
-  </si>
-  <si>
-    <t>/updatestatus</t>
-  </si>
-  <si>
-    <t>/delete</t>
-  </si>
-  <si>
-    <t>/createrequest</t>
-  </si>
-  <si>
-    <t>/deleterequest</t>
-  </si>
-  <si>
-    <t>/getrequestcount</t>
-  </si>
-  <si>
-    <t>/getrequest</t>
-  </si>
-  <si>
     <t>AC Type</t>
   </si>
   <si>
@@ -435,21 +109,12 @@
   <si>
     <t>Customer Login</t>
   </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Pre Booking</t>
-  </si>
-  <si>
-    <t>end to end</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,12 +126,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,27 +155,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -524,46 +171,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6925,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1749B122-D48B-9A47-9252-07DC068BCFB8}">
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7035,18 +6652,18 @@
         <v>0</v>
       </c>
       <c r="BM5" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.2">
       <c r="BK6" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="BL6">
         <v>1</v>
       </c>
       <c r="BM6" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:65" x14ac:dyDescent="0.2">
@@ -7065,7 +6682,7 @@
         <v>-1</v>
       </c>
       <c r="BM8" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:65" x14ac:dyDescent="0.2">
@@ -7103,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFC674E-FF23-024B-B50C-63FA81477FCC}">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7114,1037 +6731,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="12:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="L1" s="9" t="s">
-        <v>133</v>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>130</v>
+      <c r="L19" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF105E-19DD-504E-B2C7-03D135544D2A}">
-  <dimension ref="B2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873333A-9513-0D4B-818E-F6CEEC3D4866}">
-  <dimension ref="B3:O24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" customWidth="1"/>
-    <col min="9" max="10" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M14" si="0">_xlfn.CONCAT("INSERT INTO ",CHAR(34),"M_CTL_CONFIG",CHAR(34)," VALUES('",D4,"','CONNON_CONFIG', 0, '",C4,"', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);")</f>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-AP-01','CONNON_CONFIG', 0, 'Refresh cache', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N4" t="str">
-        <f>_xlfn.CONCAT(IF(I4="GET","@GetMapping(",IF(I4="POST","@PostMapping(",IF(I4="DELETE","@DeleteMapping(",IF(I4="PUT","@PutMapping(","")))),CHAR(34),H4,CHAR(34),")")</f>
-        <v>@GetMapping("/refreshcache")</v>
-      </c>
-      <c r="O4" t="str">
-        <f>_xlfn.CONCAT("@ServiceInfo(serviceCode = ",CHAR(34),D4,,CHAR(34),", serviceName = ",CHAR(34),C4,CHAR(34), ", queryId = ",CHAR(34),E4,CHAR(34),", logActivity =",F4,")")</f>
-        <v>@ServiceInfo(serviceCode = "WS-AP-01", serviceName = "Refresh cache", queryId = "", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-AP-02','CONNON_CONFIG', 0, 'Refresh SQL', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" ref="N5:N24" si="1">_xlfn.CONCAT(IF(I5="GET","@GetMapping(",IF(I5="POST","@PostMapping(",IF(I5="DELETE","@DeleteMapping(",IF(I5="PUT","@PutMapping(","")))),CHAR(34),H5,CHAR(34),")")</f>
-        <v>@GetMapping("/refreshsql")</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" ref="O5:O24" si="2">_xlfn.CONCAT("@ServiceInfo(serviceCode = ",CHAR(34),D5,,CHAR(34),", serviceName = ",CHAR(34),C5,CHAR(34), ", queryId = ",CHAR(34),E5,CHAR(34),", logActivity =",F5,")")</f>
-        <v>@ServiceInfo(serviceCode = "WS-AP-02", serviceName = "Refresh SQL", queryId = "", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-UP-01','CONNON_CONFIG', 0, 'Get User Information', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N6" t="str">
-        <f>_xlfn.CONCAT(IF(I6="GET","@GetMapping(",IF(I6="POST","@PostMapping(",IF(I6="DELETE","@DeleteMapping(",IF(I6="PUT","@PutMapping(","")))),CHAR(34),H6,CHAR(34),")")</f>
-        <v>@GetMapping("/id")</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-UP-01", serviceName = "Get User Information", queryId = "app.user.get", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-UP-02','CONNON_CONFIG', 0, 'Get All User Information', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/all")</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-UP-02", serviceName = "Get All User Information", queryId = "app.user.get.all", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-UP-03','CONNON_CONFIG', 0, 'User Registration', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>@PostMapping("/registor")</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-UP-03", serviceName = "User Registration", queryId = "app.user.save", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-UP-04','CONNON_CONFIG', 0, 'Login service', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/login")</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-UP-04", serviceName = "Login service", queryId = "app.user.get", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-UP-05','CONNON_CONFIG', 0, 'Logout service', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/logout")</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-UP-05", serviceName = "Logout service", queryId = "app.user.logout", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-VS-01','CONNON_CONFIG', 0, 'Get All Vehicle From Master', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/all")</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-VS-01", serviceName = "Get All Vehicle From Master", queryId = "app.vehicle.get.all", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-VS-02','CONNON_CONFIG', 0, 'User Vehicle Registration', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>@PostMapping("/registor")</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-VS-02", serviceName = "User Vehicle Registration", queryId = "app.vehicle.save", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-VS-03','CONNON_CONFIG', 0, 'Get User Vehicles', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/uservehicle")</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-VS-03", serviceName = "Get User Vehicles", queryId = "app.vehicle.get.uservehicle", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-SE-01','CONNON_CONFIG', 0, 'Get All Active Services Types', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/type/all")</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-SE-01", serviceName = "Get All Active Services Types", queryId = "app.service.get.all", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",CHAR(34),"M_CTL_CONFIG",CHAR(34)," VALUES('",D15,"','CONNON_CONFIG', 0, '",C15,"', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);")</f>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-01','CONNON_CONFIG', 0, 'Search post', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/search")</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-01", serviceName = "Search post", queryId = "app.post.search", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" t="str">
-        <f t="shared" ref="M16:M24" si="3">_xlfn.CONCAT("INSERT INTO ",CHAR(34),"M_CTL_CONFIG",CHAR(34)," VALUES('",D16,"','CONNON_CONFIG', 0, '",C16,"', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);")</f>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-02','CONNON_CONFIG', 0, 'Create Post', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="1"/>
-        <v>@PostMapping("/create")</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-02", serviceName = "Create Post", queryId = "app.post.create", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-03','CONNON_CONFIG', 0, 'Update Post', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="1"/>
-        <v>@PutMapping("/update")</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-03", serviceName = "Update Post", queryId = "app.post.update", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-04','CONNON_CONFIG', 0, 'Update Post Status', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="1"/>
-        <v>@PutMapping("/updatestatus")</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-04", serviceName = "Update Post Status", queryId = "app.post.update.status", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-05','CONNON_CONFIG', 0, 'Delete Post', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="1"/>
-        <v>@DeleteMapping("/delete")</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-05", serviceName = "Delete Post", queryId = "app.post.delete", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-06','CONNON_CONFIG', 0, 'Create Post Request', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="1"/>
-        <v>@PostMapping("/createrequest")</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-06", serviceName = "Create Post Request", queryId = "app.post.create.request", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-07','CONNON_CONFIG', 0, 'Delete Post Request', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="1"/>
-        <v>@DeleteMapping("/deleterequest")</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-07", serviceName = "Delete Post Request", queryId = "app.post.delete.request", logActivity =TRUE)</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-08','CONNON_CONFIG', 0, 'Get Post Request Count', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/getrequestcount")</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-08", serviceName = "Get Post Request Count", queryId = "app.post.get.request.count", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-PS-09','CONNON_CONFIG', 0, 'Get Post Request', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/getrequest")</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-PS-09", serviceName = "Get Post Request", queryId = "app.post.get.request", logActivity =FALSE)</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO "M_CTL_CONFIG" VALUES('WS-SP-01','CONNON_CONFIG', 0, 'Search Service Provider For Post', '{}', 0, 0, CURRENT_TIMESTAMP, 'ATUL', null, null);</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="1"/>
-        <v>@GetMapping("/search")</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="2"/>
-        <v>@ServiceInfo(serviceCode = "WS-SP-01", serviceName = "Search Service Provider For Post", queryId = "app.serviceprovider.search", logActivity =FALSE)</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B3:L24" xr:uid="{B873333A-9513-0D4B-818E-F6CEEC3D4866}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>